--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1347.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1347.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.137221924716293</v>
+        <v>1.195090532302856</v>
       </c>
       <c r="B1">
-        <v>2.610955469374646</v>
+        <v>2.679686069488525</v>
       </c>
       <c r="C1">
-        <v>4.293853223677009</v>
+        <v>9.354107856750488</v>
       </c>
       <c r="D1">
-        <v>2.532285282234576</v>
+        <v>2.075063467025757</v>
       </c>
       <c r="E1">
-        <v>1.176818169791983</v>
+        <v>1.209280729293823</v>
       </c>
     </row>
   </sheetData>
